--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 5.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 5.xlsx_with_dialog_acts.xlsx
@@ -927,12 +927,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
